--- a/2)国連決議/2-2)国連決議_最終形.xlsx
+++ b/2)国連決議/2-2)国連決議_最終形.xlsx
@@ -5,23 +5,26 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0920334\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0920334\Downloads\JNPC2302-main\JNPC2302-main\2)国連決議\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C60F16D-F807-4A52-B54F-B044EC1616D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F078D4-E53B-4254-959C-703D2340444B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19050" yWindow="-16320" windowWidth="29040" windowHeight="15990" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="国連決議3回分" sheetId="2" r:id="rId1"/>
-    <sheet name="ISOコード" sheetId="4" r:id="rId2"/>
-    <sheet name="ISOコードをテーブルにした" sheetId="8" r:id="rId3"/>
-    <sheet name="態度表明" sheetId="3" r:id="rId4"/>
-    <sheet name="マッチングを修正した" sheetId="7" r:id="rId5"/>
-    <sheet name="3回目を読み込んだ+XLOOKUP" sheetId="6" r:id="rId6"/>
-    <sheet name="こういう発表だと助かる" sheetId="5" r:id="rId7"/>
+    <sheet name="値だけにした" sheetId="2" r:id="rId1"/>
+    <sheet name="国連決議3回分を連結" sheetId="10" r:id="rId2"/>
+    <sheet name="ISOコード" sheetId="4" r:id="rId3"/>
+    <sheet name="ISOコードをテーブルにした" sheetId="8" r:id="rId4"/>
+    <sheet name="態度表明" sheetId="3" r:id="rId5"/>
+    <sheet name="態度の列を増やした" sheetId="9" r:id="rId6"/>
+    <sheet name="マッチングを修正した" sheetId="7" r:id="rId7"/>
+    <sheet name="3回目を読み込んだ+XLOOKUP" sheetId="6" r:id="rId8"/>
+    <sheet name="こういう発表だと助かる" sheetId="5" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_3回目連結用">決議3回目に態度の列付加[[ISO略称]:[日本語にした]]</definedName>
     <definedName name="ISOコード表">ISOコード!$C$2:$D$250</definedName>
     <definedName name="対照表">態度表明!$B$1:$C$4</definedName>
   </definedNames>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="981">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4443" uniqueCount="983">
   <si>
     <t>賛成票</t>
   </si>
@@ -3593,6 +3596,23 @@
     </rPh>
     <rPh sb="30" eb="31">
       <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>態度＝再掲</t>
+    <rPh sb="0" eb="2">
+      <t>タイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日本語にした</t>
+    <rPh sb="0" eb="3">
+      <t>ニホンゴ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3708,7 +3728,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3731,6 +3751,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3850,7 +3876,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -3885,6 +3911,8 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3894,7 +3922,137 @@
     <cellStyle name="標準 4" xfId="3" xr:uid="{0378DB94-9C97-4A57-BD8D-F1E86A4FFE21}"/>
     <cellStyle name="標準 5" xfId="4" xr:uid="{6EC7EEDF-D91C-49AC-B33F-246F6746420E}"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="38">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3924,6 +4082,46 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4097,6 +4295,36 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4230,27 +4458,64 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{46157CEC-E86A-40D0-A7CD-C87F181B316F}" name="ISOテーブル" displayName="ISOテーブル" ref="A1:D250" totalsRowShown="0" dataDxfId="20" dataCellStyle="標準 4">
-  <autoFilter ref="A1:D250" xr:uid="{46157CEC-E86A-40D0-A7CD-C87F181B316F}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EC1AC337-85B6-4440-B4D7-3FD36B6FB7AC}" name="ROW" dataDxfId="19" dataCellStyle="標準 4"/>
-    <tableColumn id="2" xr3:uid="{85850D55-CF6A-47C3-9A7F-0BC470B0CD24}" name="Country or Area" dataDxfId="18" dataCellStyle="標準 4"/>
-    <tableColumn id="3" xr3:uid="{CA1F5AF7-4AD1-4411-A9BE-46B88119D694}" name="大文字にした" dataDxfId="17" dataCellStyle="標準 4">
-      <calculatedColumnFormula>UPPER(B2)</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7E1BCA35-1464-4C75-8659-66E759FF6E11}" name="テーブル5" displayName="テーブル5" ref="A1:F199" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3" tableBorderDxfId="9" headerRowCellStyle="標準 2" dataCellStyle="標準 2">
+  <autoFilter ref="A1:F199" xr:uid="{7E1BCA35-1464-4C75-8659-66E759FF6E11}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{3C904DEC-75EF-427B-A8FD-D0BE36179DDA}" name="アルファベット表記の国・地域名" dataDxfId="8" dataCellStyle="標準 2"/>
+    <tableColumn id="2" xr3:uid="{521D2F28-02F1-4216-BF79-AE2518C8AF83}" name="ISOコード" dataDxfId="7" dataCellStyle="標準 2"/>
+    <tableColumn id="3" xr3:uid="{47B692EA-A1A8-4213-B4C2-9DB34731559D}" name="国・地域名" dataDxfId="6" dataCellStyle="標準 2"/>
+    <tableColumn id="4" xr3:uid="{80A37198-1726-4A01-939A-1D52BC4227EE}" name="2014年3月" dataDxfId="5" dataCellStyle="標準 2"/>
+    <tableColumn id="5" xr3:uid="{11BC816B-31B4-4668-BB4B-1C209FF6DAF8}" name="2022年3月" dataDxfId="4" dataCellStyle="標準 2"/>
+    <tableColumn id="6" xr3:uid="{598DA48D-0ABC-4576-A06E-CF476347EBBF}" name="2022年10月" dataDxfId="0" dataCellStyle="標準 2">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{78E180DE-B75D-462C-AC43-1ACFBF85A48A}" name="ISO 3166-1 alpha-3" dataDxfId="16" dataCellStyle="標準 4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D65A7E09-7785-4936-B8C9-6247120B6B67}" name="決議3回目修正作業" displayName="決議3回目修正作業" ref="A1:C194" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowCellStyle="標準 3" dataCellStyle="標準 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{46157CEC-E86A-40D0-A7CD-C87F181B316F}" name="ISOテーブル" displayName="ISOテーブル" ref="A1:D250" totalsRowShown="0" dataDxfId="37" dataCellStyle="標準 4">
+  <autoFilter ref="A1:D250" xr:uid="{46157CEC-E86A-40D0-A7CD-C87F181B316F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{EC1AC337-85B6-4440-B4D7-3FD36B6FB7AC}" name="ROW" dataDxfId="36" dataCellStyle="標準 4"/>
+    <tableColumn id="2" xr3:uid="{85850D55-CF6A-47C3-9A7F-0BC470B0CD24}" name="Country or Area" dataDxfId="35" dataCellStyle="標準 4"/>
+    <tableColumn id="3" xr3:uid="{CA1F5AF7-4AD1-4411-A9BE-46B88119D694}" name="大文字にした" dataDxfId="34" dataCellStyle="標準 4">
+      <calculatedColumnFormula>UPPER(B2)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{78E180DE-B75D-462C-AC43-1ACFBF85A48A}" name="ISO 3166-1 alpha-3" dataDxfId="33" dataCellStyle="標準 4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{83632188-8763-4EC4-A25C-8B1C1CAC650B}" name="決議3回目に態度の列付加" displayName="決議3回目に態度の列付加" ref="A1:E194" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14" headerRowCellStyle="標準 3" dataCellStyle="標準 3">
+  <autoFilter ref="A1:E194" xr:uid="{5B5D56BB-61AC-4790-8F4F-E25E38FC8184}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{616E0A58-74D2-472A-82E8-395B2C67B7DC}" name="態度" dataDxfId="13" dataCellStyle="標準 3"/>
+    <tableColumn id="2" xr3:uid="{14EAC1C2-6D0C-4780-815D-9415B432FCB9}" name="国名" dataDxfId="12" dataCellStyle="標準 3"/>
+    <tableColumn id="3" xr3:uid="{71787E5E-F873-4FE5-8EBC-419FFA178729}" name="ISO略称" dataDxfId="11" dataCellStyle="標準 3">
+      <calculatedColumnFormula>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{64F0E445-99AB-45DA-B2E7-E03A8E8C3262}" name="態度＝再掲" dataDxfId="10" dataCellStyle="標準 3">
+      <calculatedColumnFormula>決議3回目に態度の列付加[[#This Row],[態度]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B39D3311-4B39-47A6-B293-48778CE4ACB5}" name="日本語にした" dataDxfId="1" dataCellStyle="標準 3">
+      <calculatedColumnFormula>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{D65A7E09-7785-4936-B8C9-6247120B6B67}" name="決議3回目修正作業" displayName="決議3回目修正作業" ref="A1:C194" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" headerRowCellStyle="標準 3" dataCellStyle="標準 3">
   <autoFilter ref="A1:C194" xr:uid="{5B5D56BB-61AC-4790-8F4F-E25E38FC8184}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A6D02547-13F1-47FE-A1D0-CC58EFA7120E}" name="態度" dataDxfId="4" dataCellStyle="標準 3"/>
-    <tableColumn id="2" xr3:uid="{CCAA9C7E-9B5C-4A0A-98F2-666EAB0BBCCC}" name="国名" dataDxfId="3" dataCellStyle="標準 3"/>
-    <tableColumn id="3" xr3:uid="{BB496213-B49C-4513-830D-83BCD583EE44}" name="ISO略称" dataDxfId="2" dataCellStyle="標準 3">
+    <tableColumn id="1" xr3:uid="{A6D02547-13F1-47FE-A1D0-CC58EFA7120E}" name="態度" dataDxfId="19" dataCellStyle="標準 3"/>
+    <tableColumn id="2" xr3:uid="{CCAA9C7E-9B5C-4A0A-98F2-666EAB0BBCCC}" name="国名" dataDxfId="18" dataCellStyle="標準 3"/>
+    <tableColumn id="3" xr3:uid="{BB496213-B49C-4513-830D-83BCD583EE44}" name="ISO略称" dataDxfId="17" dataCellStyle="標準 3">
       <calculatedColumnFormula>IFERROR(VLOOKUP(決議3回目修正作業[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4258,22 +4523,22 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2ADA7F45-3B7B-4988-A5CE-42DB019550D5}" name="決議3回目" displayName="決議3回目" ref="A1:F194" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowCellStyle="標準 3" dataCellStyle="標準 3">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2ADA7F45-3B7B-4988-A5CE-42DB019550D5}" name="決議3回目" displayName="決議3回目" ref="A1:F194" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" headerRowCellStyle="標準 3" dataCellStyle="標準 3">
   <autoFilter ref="A1:F194" xr:uid="{5B5D56BB-61AC-4790-8F4F-E25E38FC8184}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{2DB00570-5521-4224-B5A7-AE82A2D4614C}" name="態度" dataDxfId="12" dataCellStyle="標準 3"/>
-    <tableColumn id="2" xr3:uid="{A6E82425-6835-4BEE-BD14-60ED13893737}" name="国名" dataDxfId="11" dataCellStyle="標準 3"/>
-    <tableColumn id="6" xr3:uid="{B7454EFC-B913-4D5A-A381-5E01A9942B2F}" name="VLOOKUPのみ" dataDxfId="10" dataCellStyle="標準 3 2">
+    <tableColumn id="1" xr3:uid="{2DB00570-5521-4224-B5A7-AE82A2D4614C}" name="態度" dataDxfId="27" dataCellStyle="標準 3"/>
+    <tableColumn id="2" xr3:uid="{A6E82425-6835-4BEE-BD14-60ED13893737}" name="国名" dataDxfId="26" dataCellStyle="標準 3"/>
+    <tableColumn id="6" xr3:uid="{B7454EFC-B913-4D5A-A381-5E01A9942B2F}" name="VLOOKUPのみ" dataDxfId="25" dataCellStyle="標準 3 2">
       <calculatedColumnFormula>VLOOKUP(決議3回目[[#This Row],[国名]],ISOコード表,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{453D38C7-8F30-4595-9A28-10447223263E}" name="VLOOKUP+IFERROR" dataDxfId="9" dataCellStyle="標準 3">
+    <tableColumn id="3" xr3:uid="{453D38C7-8F30-4595-9A28-10447223263E}" name="VLOOKUP+IFERROR" dataDxfId="24" dataCellStyle="標準 3">
       <calculatedColumnFormula>IFERROR(VLOOKUP(決議3回目[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C0B7A573-2149-4896-898E-748AFC562D6B}" name="XLOOKUPの場合" dataDxfId="8" dataCellStyle="標準 2">
+    <tableColumn id="4" xr3:uid="{C0B7A573-2149-4896-898E-748AFC562D6B}" name="XLOOKUPの場合" dataDxfId="23" dataCellStyle="標準 2">
       <calculatedColumnFormula>_xlfn.XLOOKUP(決議3回目[[#This Row],[国名]],ISOコード!$C$2:$C$250,ISOコード!$D$2:$D$250,"〓〓")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{30E989E8-802D-40CF-8816-57D42B39BBBE}" name="テーブル名と列で指定した" dataDxfId="7" dataCellStyle="標準 3">
+    <tableColumn id="5" xr3:uid="{30E989E8-802D-40CF-8816-57D42B39BBBE}" name="テーブル名と列で指定した" dataDxfId="22" dataCellStyle="標準 3">
       <calculatedColumnFormula>_xlfn.XLOOKUP(決議3回目[[#This Row],[国名]],ISOテーブル[大文字にした], ISOテーブル[ISO 3166-1 alpha-3],"〓〓")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -4546,7 +4811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E3456D-667B-403C-9D30-876B421E1D74}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.8"/>
   <cols>
@@ -8545,6 +8810,4212 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ABF8574-D536-4161-BACA-7A834D080CB0}">
+  <dimension ref="A1:F199"/>
+  <sheetViews>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.8"/>
+  <cols>
+    <col min="1" max="1" width="36" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.09765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.19921875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F19" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>反対票</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F22" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F23" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>反対票</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>反対票</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F34" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>反対票</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F42" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F43" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>反対票</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F47" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F48" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F49" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F50" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F51" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F52" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F54" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F55" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F56" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F57" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F64" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F67" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F68" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F69" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F70" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F71" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F72" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F73" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F74" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F75" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F76" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F77" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F78" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F79" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F80" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F81" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F84" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F85" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F86" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F87" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F88" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F89" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F91" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F92" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F93" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F96" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F97" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F99" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F100" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F101" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F102" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F103" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F105" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F106" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F107" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F108" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F109" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F110" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F111" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F112" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F113" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F114" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F115" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F116" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F121" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F122" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F124" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F125" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F126" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F127" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F128" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F130" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F131" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F132" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F133" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F134" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F135" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F136" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F137" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F138" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F139" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F140" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F141" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F142" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F143" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F144" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F145" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F147" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F148" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F149" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F150" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F151" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F153" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F154" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F155" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F156" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F158" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F159" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F160" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F161" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D162" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F162" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F163" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D164" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F164" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F165" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F166" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F167" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F168" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F169" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F170" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F171" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F172" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F173" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F174" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F175" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F176" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F177" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F178" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F179" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F180" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F181" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F182" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F183" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F184" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F185" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F186" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F187" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F188" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F189" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F190" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D191" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F191" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D192" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F192" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D193" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F193" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F194" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F195" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F196" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F197" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F198" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F199" s="28" t="str">
+        <f>IFERROR(VLOOKUP(テーブル5[[#This Row],[ISOコード]],_3回目連結用,3,FALSE),"")</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D71F5A72-76C5-4CDF-811A-2052073EB386}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -12320,7 +16791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F676E50-6635-408B-826E-909630C9745E}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -16099,7 +20570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE220CAE-FE32-43C6-8DEC-3390AF8FB540}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -16167,12 +20638,3911 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E8A4FBF-8E34-4245-AA38-793F5CDBE75B}">
+  <dimension ref="A1:E194"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="5.3984375" style="25" customWidth="1"/>
+    <col min="2" max="2" width="40.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.796875" style="25"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="25" t="s">
+        <v>964</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>965</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>979</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>981</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>946</v>
+      </c>
+      <c r="C2" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>AFG</v>
+      </c>
+      <c r="D2" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E2" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>945</v>
+      </c>
+      <c r="C3" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>ALB</v>
+      </c>
+      <c r="D3" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E3" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>944</v>
+      </c>
+      <c r="C4" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>DZA</v>
+      </c>
+      <c r="D4" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E4" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>943</v>
+      </c>
+      <c r="C5" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>AND</v>
+      </c>
+      <c r="D5" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E5" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>942</v>
+      </c>
+      <c r="C6" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>AGO</v>
+      </c>
+      <c r="D6" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E6" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>941</v>
+      </c>
+      <c r="C7" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>ATG</v>
+      </c>
+      <c r="D7" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E7" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>940</v>
+      </c>
+      <c r="C8" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>ARG</v>
+      </c>
+      <c r="D8" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E8" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>939</v>
+      </c>
+      <c r="C9" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>ARM</v>
+      </c>
+      <c r="D9" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E9" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>938</v>
+      </c>
+      <c r="C10" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>AUS</v>
+      </c>
+      <c r="D10" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E10" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>937</v>
+      </c>
+      <c r="C11" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>AUT</v>
+      </c>
+      <c r="D11" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E11" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>936</v>
+      </c>
+      <c r="C12" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>AZE</v>
+      </c>
+      <c r="D12" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>ZZZ</v>
+      </c>
+      <c r="E12" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>935</v>
+      </c>
+      <c r="C13" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>BHS</v>
+      </c>
+      <c r="D13" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E13" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>934</v>
+      </c>
+      <c r="C14" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>BHR</v>
+      </c>
+      <c r="D14" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E14" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>933</v>
+      </c>
+      <c r="C15" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>BGD</v>
+      </c>
+      <c r="D15" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E15" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>932</v>
+      </c>
+      <c r="C16" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>BRB</v>
+      </c>
+      <c r="D16" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E16" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>931</v>
+      </c>
+      <c r="C17" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>BLR</v>
+      </c>
+      <c r="D17" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>N</v>
+      </c>
+      <c r="E17" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>反対票</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>930</v>
+      </c>
+      <c r="C18" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>BEL</v>
+      </c>
+      <c r="D18" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E18" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>929</v>
+      </c>
+      <c r="C19" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>BLZ</v>
+      </c>
+      <c r="D19" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E19" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>928</v>
+      </c>
+      <c r="C20" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>BEN</v>
+      </c>
+      <c r="D20" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E20" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>927</v>
+      </c>
+      <c r="C21" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>BTN</v>
+      </c>
+      <c r="D21" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E21" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>926</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>956</v>
+      </c>
+      <c r="D22" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E22" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>925</v>
+      </c>
+      <c r="C23" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>BIH</v>
+      </c>
+      <c r="D23" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E23" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>924</v>
+      </c>
+      <c r="C24" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>BWA</v>
+      </c>
+      <c r="D24" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E24" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>923</v>
+      </c>
+      <c r="C25" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>BRA</v>
+      </c>
+      <c r="D25" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E25" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>922</v>
+      </c>
+      <c r="C26" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>BRN</v>
+      </c>
+      <c r="D26" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E26" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>921</v>
+      </c>
+      <c r="C27" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>BGR</v>
+      </c>
+      <c r="D27" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E27" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>920</v>
+      </c>
+      <c r="C28" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>BFA</v>
+      </c>
+      <c r="D28" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>ZZZ</v>
+      </c>
+      <c r="E28" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>919</v>
+      </c>
+      <c r="C29" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>BDI</v>
+      </c>
+      <c r="D29" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E29" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>918</v>
+      </c>
+      <c r="C30" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>CPV</v>
+      </c>
+      <c r="D30" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E30" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>917</v>
+      </c>
+      <c r="C31" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>KHM</v>
+      </c>
+      <c r="D31" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E31" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>916</v>
+      </c>
+      <c r="C32" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>CMR</v>
+      </c>
+      <c r="D32" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>ZZZ</v>
+      </c>
+      <c r="E32" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>915</v>
+      </c>
+      <c r="C33" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>CAN</v>
+      </c>
+      <c r="D33" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E33" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>914</v>
+      </c>
+      <c r="C34" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>CAF</v>
+      </c>
+      <c r="D34" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E34" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>913</v>
+      </c>
+      <c r="C35" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>TCD</v>
+      </c>
+      <c r="D35" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E35" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>912</v>
+      </c>
+      <c r="C36" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>CHL</v>
+      </c>
+      <c r="D36" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E36" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>911</v>
+      </c>
+      <c r="C37" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>CHN</v>
+      </c>
+      <c r="D37" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E37" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>910</v>
+      </c>
+      <c r="C38" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>COL</v>
+      </c>
+      <c r="D38" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E38" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>909</v>
+      </c>
+      <c r="C39" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>COM</v>
+      </c>
+      <c r="D39" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E39" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>908</v>
+      </c>
+      <c r="C40" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>COG</v>
+      </c>
+      <c r="D40" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E40" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>907</v>
+      </c>
+      <c r="C41" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>CRI</v>
+      </c>
+      <c r="D41" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E41" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>906</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>955</v>
+      </c>
+      <c r="D42" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E42" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>905</v>
+      </c>
+      <c r="C43" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>HRV</v>
+      </c>
+      <c r="D43" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E43" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>904</v>
+      </c>
+      <c r="C44" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>CUB</v>
+      </c>
+      <c r="D44" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E44" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>903</v>
+      </c>
+      <c r="C45" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>CYP</v>
+      </c>
+      <c r="D45" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E45" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>902</v>
+      </c>
+      <c r="C46" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>CZE</v>
+      </c>
+      <c r="D46" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E46" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>958</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>954</v>
+      </c>
+      <c r="D47" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>N</v>
+      </c>
+      <c r="E47" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>反対票</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>953</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>960</v>
+      </c>
+      <c r="D48" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E48" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>901</v>
+      </c>
+      <c r="C49" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>DNK</v>
+      </c>
+      <c r="D49" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E49" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>900</v>
+      </c>
+      <c r="C50" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>DJI</v>
+      </c>
+      <c r="D50" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>ZZZ</v>
+      </c>
+      <c r="E50" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>899</v>
+      </c>
+      <c r="C51" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>DMA</v>
+      </c>
+      <c r="D51" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E51" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>898</v>
+      </c>
+      <c r="C52" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>DOM</v>
+      </c>
+      <c r="D52" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E52" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>897</v>
+      </c>
+      <c r="C53" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>ECU</v>
+      </c>
+      <c r="D53" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E53" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>896</v>
+      </c>
+      <c r="C54" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>EGY</v>
+      </c>
+      <c r="D54" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E54" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>895</v>
+      </c>
+      <c r="C55" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SLV</v>
+      </c>
+      <c r="D55" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>ZZZ</v>
+      </c>
+      <c r="E55" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>894</v>
+      </c>
+      <c r="C56" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>GNQ</v>
+      </c>
+      <c r="D56" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>ZZZ</v>
+      </c>
+      <c r="E56" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>893</v>
+      </c>
+      <c r="C57" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>ERI</v>
+      </c>
+      <c r="D57" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E57" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>892</v>
+      </c>
+      <c r="C58" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>EST</v>
+      </c>
+      <c r="D58" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E58" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>891</v>
+      </c>
+      <c r="C59" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SWZ</v>
+      </c>
+      <c r="D59" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E59" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>890</v>
+      </c>
+      <c r="C60" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>ETH</v>
+      </c>
+      <c r="D60" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E60" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>889</v>
+      </c>
+      <c r="C61" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>FJI</v>
+      </c>
+      <c r="D61" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E61" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>888</v>
+      </c>
+      <c r="C62" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>FIN</v>
+      </c>
+      <c r="D62" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E62" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>887</v>
+      </c>
+      <c r="C63" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>FRA</v>
+      </c>
+      <c r="D63" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E63" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>886</v>
+      </c>
+      <c r="C64" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>GAB</v>
+      </c>
+      <c r="D64" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E64" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>885</v>
+      </c>
+      <c r="C65" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>GMB</v>
+      </c>
+      <c r="D65" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E65" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>884</v>
+      </c>
+      <c r="C66" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>GEO</v>
+      </c>
+      <c r="D66" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E66" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>883</v>
+      </c>
+      <c r="C67" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>DEU</v>
+      </c>
+      <c r="D67" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E67" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B68" s="25" t="s">
+        <v>882</v>
+      </c>
+      <c r="C68" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>GHA</v>
+      </c>
+      <c r="D68" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E68" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>881</v>
+      </c>
+      <c r="C69" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>GRC</v>
+      </c>
+      <c r="D69" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E69" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B70" s="25" t="s">
+        <v>880</v>
+      </c>
+      <c r="C70" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>GRD</v>
+      </c>
+      <c r="D70" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E70" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>879</v>
+      </c>
+      <c r="C71" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>GTM</v>
+      </c>
+      <c r="D71" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E71" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>878</v>
+      </c>
+      <c r="C72" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>GIN</v>
+      </c>
+      <c r="D72" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E72" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>877</v>
+      </c>
+      <c r="C73" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>GNB</v>
+      </c>
+      <c r="D73" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E73" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>876</v>
+      </c>
+      <c r="C74" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>GUY</v>
+      </c>
+      <c r="D74" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E74" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>875</v>
+      </c>
+      <c r="C75" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>HTI</v>
+      </c>
+      <c r="D75" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E75" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B76" s="25" t="s">
+        <v>874</v>
+      </c>
+      <c r="C76" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>HND</v>
+      </c>
+      <c r="D76" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E76" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B77" s="25" t="s">
+        <v>873</v>
+      </c>
+      <c r="C77" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>HUN</v>
+      </c>
+      <c r="D77" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E77" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>872</v>
+      </c>
+      <c r="C78" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>ISL</v>
+      </c>
+      <c r="D78" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E78" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>871</v>
+      </c>
+      <c r="C79" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>IND</v>
+      </c>
+      <c r="D79" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E79" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B80" s="25" t="s">
+        <v>870</v>
+      </c>
+      <c r="C80" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>IDN</v>
+      </c>
+      <c r="D80" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E80" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="B81" s="25" t="s">
+        <v>869</v>
+      </c>
+      <c r="C81" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>IRN</v>
+      </c>
+      <c r="D81" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>ZZZ</v>
+      </c>
+      <c r="E81" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B82" s="25" t="s">
+        <v>868</v>
+      </c>
+      <c r="C82" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>IRQ</v>
+      </c>
+      <c r="D82" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E82" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B83" s="25" t="s">
+        <v>867</v>
+      </c>
+      <c r="C83" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>IRL</v>
+      </c>
+      <c r="D83" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E83" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B84" s="25" t="s">
+        <v>866</v>
+      </c>
+      <c r="C84" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>ISR</v>
+      </c>
+      <c r="D84" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E84" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B85" s="25" t="s">
+        <v>865</v>
+      </c>
+      <c r="C85" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>ITA</v>
+      </c>
+      <c r="D85" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E85" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B86" s="25" t="s">
+        <v>864</v>
+      </c>
+      <c r="C86" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>JAM</v>
+      </c>
+      <c r="D86" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E86" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>863</v>
+      </c>
+      <c r="C87" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>JPN</v>
+      </c>
+      <c r="D87" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E87" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>862</v>
+      </c>
+      <c r="C88" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>JOR</v>
+      </c>
+      <c r="D88" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E88" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B89" s="25" t="s">
+        <v>861</v>
+      </c>
+      <c r="C89" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>KAZ</v>
+      </c>
+      <c r="D89" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E89" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B90" s="25" t="s">
+        <v>860</v>
+      </c>
+      <c r="C90" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>KEN</v>
+      </c>
+      <c r="D90" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E90" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B91" s="25" t="s">
+        <v>859</v>
+      </c>
+      <c r="C91" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>KIR</v>
+      </c>
+      <c r="D91" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E91" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B92" s="25" t="s">
+        <v>858</v>
+      </c>
+      <c r="C92" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>KWT</v>
+      </c>
+      <c r="D92" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E92" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B93" s="25" t="s">
+        <v>857</v>
+      </c>
+      <c r="C93" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>KGZ</v>
+      </c>
+      <c r="D93" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E93" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>856</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>952</v>
+      </c>
+      <c r="D94" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E94" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B95" s="25" t="s">
+        <v>855</v>
+      </c>
+      <c r="C95" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>LVA</v>
+      </c>
+      <c r="D95" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E95" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B96" s="25" t="s">
+        <v>854</v>
+      </c>
+      <c r="C96" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>LBN</v>
+      </c>
+      <c r="D96" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E96" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B97" s="25" t="s">
+        <v>853</v>
+      </c>
+      <c r="C97" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>LSO</v>
+      </c>
+      <c r="D97" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E97" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B98" s="25" t="s">
+        <v>852</v>
+      </c>
+      <c r="C98" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>LBR</v>
+      </c>
+      <c r="D98" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E98" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B99" s="25" t="s">
+        <v>851</v>
+      </c>
+      <c r="C99" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>LBY</v>
+      </c>
+      <c r="D99" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E99" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B100" s="25" t="s">
+        <v>850</v>
+      </c>
+      <c r="C100" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>LIE</v>
+      </c>
+      <c r="D100" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E100" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B101" s="25" t="s">
+        <v>849</v>
+      </c>
+      <c r="C101" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>LTU</v>
+      </c>
+      <c r="D101" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E101" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B102" s="25" t="s">
+        <v>848</v>
+      </c>
+      <c r="C102" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>LUX</v>
+      </c>
+      <c r="D102" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E102" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B103" s="25" t="s">
+        <v>847</v>
+      </c>
+      <c r="C103" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MDG</v>
+      </c>
+      <c r="D103" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E103" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B104" s="25" t="s">
+        <v>846</v>
+      </c>
+      <c r="C104" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MWI</v>
+      </c>
+      <c r="D104" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E104" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B105" s="25" t="s">
+        <v>845</v>
+      </c>
+      <c r="C105" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MYS</v>
+      </c>
+      <c r="D105" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E105" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B106" s="25" t="s">
+        <v>844</v>
+      </c>
+      <c r="C106" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MDV</v>
+      </c>
+      <c r="D106" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E106" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B107" s="25" t="s">
+        <v>843</v>
+      </c>
+      <c r="C107" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MLI</v>
+      </c>
+      <c r="D107" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E107" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B108" s="25" t="s">
+        <v>842</v>
+      </c>
+      <c r="C108" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MLT</v>
+      </c>
+      <c r="D108" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E108" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B109" s="25" t="s">
+        <v>841</v>
+      </c>
+      <c r="C109" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MHL</v>
+      </c>
+      <c r="D109" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E109" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B110" s="25" t="s">
+        <v>840</v>
+      </c>
+      <c r="C110" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MRT</v>
+      </c>
+      <c r="D110" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E110" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B111" s="25" t="s">
+        <v>839</v>
+      </c>
+      <c r="C111" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MUS</v>
+      </c>
+      <c r="D111" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E111" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B112" s="25" t="s">
+        <v>838</v>
+      </c>
+      <c r="C112" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MEX</v>
+      </c>
+      <c r="D112" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E112" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B113" s="25" t="s">
+        <v>951</v>
+      </c>
+      <c r="C113" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>FSM</v>
+      </c>
+      <c r="D113" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E113" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>836</v>
+      </c>
+      <c r="C114" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MCO</v>
+      </c>
+      <c r="D114" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E114" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B115" s="25" t="s">
+        <v>835</v>
+      </c>
+      <c r="C115" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MNG</v>
+      </c>
+      <c r="D115" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E115" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B116" s="25" t="s">
+        <v>834</v>
+      </c>
+      <c r="C116" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MNE</v>
+      </c>
+      <c r="D116" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E116" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B117" s="25" t="s">
+        <v>833</v>
+      </c>
+      <c r="C117" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MAR</v>
+      </c>
+      <c r="D117" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E117" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B118" s="25" t="s">
+        <v>832</v>
+      </c>
+      <c r="C118" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MOZ</v>
+      </c>
+      <c r="D118" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E118" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B119" s="25" t="s">
+        <v>831</v>
+      </c>
+      <c r="C119" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MMR</v>
+      </c>
+      <c r="D119" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E119" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B120" s="25" t="s">
+        <v>830</v>
+      </c>
+      <c r="C120" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>NAM</v>
+      </c>
+      <c r="D120" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E120" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B121" s="25" t="s">
+        <v>829</v>
+      </c>
+      <c r="C121" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>NRU</v>
+      </c>
+      <c r="D121" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E121" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B122" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="C122" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>NPL</v>
+      </c>
+      <c r="D122" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E122" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B123" s="25" t="s">
+        <v>827</v>
+      </c>
+      <c r="C123" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>NLD</v>
+      </c>
+      <c r="D123" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E123" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B124" s="25" t="s">
+        <v>826</v>
+      </c>
+      <c r="C124" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>NZL</v>
+      </c>
+      <c r="D124" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E124" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="B125" s="25" t="s">
+        <v>825</v>
+      </c>
+      <c r="C125" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>NIC</v>
+      </c>
+      <c r="D125" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>N</v>
+      </c>
+      <c r="E125" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>反対票</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B126" s="25" t="s">
+        <v>824</v>
+      </c>
+      <c r="C126" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>NER</v>
+      </c>
+      <c r="D126" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E126" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B127" s="25" t="s">
+        <v>823</v>
+      </c>
+      <c r="C127" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>NGA</v>
+      </c>
+      <c r="D127" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E127" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B128" s="25" t="s">
+        <v>822</v>
+      </c>
+      <c r="C128" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>MKD</v>
+      </c>
+      <c r="D128" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E128" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B129" s="25" t="s">
+        <v>821</v>
+      </c>
+      <c r="C129" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>NOR</v>
+      </c>
+      <c r="D129" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E129" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B130" s="25" t="s">
+        <v>820</v>
+      </c>
+      <c r="C130" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>OMN</v>
+      </c>
+      <c r="D130" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E130" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B131" s="25" t="s">
+        <v>819</v>
+      </c>
+      <c r="C131" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>PAK</v>
+      </c>
+      <c r="D131" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E131" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B132" s="25" t="s">
+        <v>818</v>
+      </c>
+      <c r="C132" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>PLW</v>
+      </c>
+      <c r="D132" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E132" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B133" s="25" t="s">
+        <v>817</v>
+      </c>
+      <c r="C133" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>PAN</v>
+      </c>
+      <c r="D133" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E133" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B134" s="25" t="s">
+        <v>816</v>
+      </c>
+      <c r="C134" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>PNG</v>
+      </c>
+      <c r="D134" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E134" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B135" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="C135" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>PRY</v>
+      </c>
+      <c r="D135" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E135" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B136" s="25" t="s">
+        <v>814</v>
+      </c>
+      <c r="C136" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>PER</v>
+      </c>
+      <c r="D136" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E136" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B137" s="25" t="s">
+        <v>813</v>
+      </c>
+      <c r="C137" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>PHL</v>
+      </c>
+      <c r="D137" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E137" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B138" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="C138" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>POL</v>
+      </c>
+      <c r="D138" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E138" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B139" s="25" t="s">
+        <v>811</v>
+      </c>
+      <c r="C139" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>PRT</v>
+      </c>
+      <c r="D139" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E139" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B140" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="C140" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>QAT</v>
+      </c>
+      <c r="D140" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E140" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B141" s="25" t="s">
+        <v>809</v>
+      </c>
+      <c r="C141" s="25" t="s">
+        <v>959</v>
+      </c>
+      <c r="D141" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E141" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B142" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="C142" s="25" t="s">
+        <v>961</v>
+      </c>
+      <c r="D142" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E142" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B143" s="25" t="s">
+        <v>807</v>
+      </c>
+      <c r="C143" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>ROU</v>
+      </c>
+      <c r="D143" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E143" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="B144" s="25" t="s">
+        <v>806</v>
+      </c>
+      <c r="C144" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>RUS</v>
+      </c>
+      <c r="D144" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>N</v>
+      </c>
+      <c r="E144" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>反対票</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B145" s="25" t="s">
+        <v>805</v>
+      </c>
+      <c r="C145" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>RWA</v>
+      </c>
+      <c r="D145" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E145" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B146" s="25" t="s">
+        <v>804</v>
+      </c>
+      <c r="C146" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>KNA</v>
+      </c>
+      <c r="D146" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E146" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B147" s="25" t="s">
+        <v>803</v>
+      </c>
+      <c r="C147" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>LCA</v>
+      </c>
+      <c r="D147" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E147" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B148" s="25" t="s">
+        <v>950</v>
+      </c>
+      <c r="C148" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>VCT</v>
+      </c>
+      <c r="D148" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E148" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B149" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="C149" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>WSM</v>
+      </c>
+      <c r="D149" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E149" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B150" s="25" t="s">
+        <v>800</v>
+      </c>
+      <c r="C150" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SMR</v>
+      </c>
+      <c r="D150" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E150" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="B151" s="25" t="s">
+        <v>799</v>
+      </c>
+      <c r="C151" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>STP</v>
+      </c>
+      <c r="D151" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>ZZZ</v>
+      </c>
+      <c r="E151" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B152" s="25" t="s">
+        <v>798</v>
+      </c>
+      <c r="C152" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SAU</v>
+      </c>
+      <c r="D152" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E152" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B153" s="25" t="s">
+        <v>797</v>
+      </c>
+      <c r="C153" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SEN</v>
+      </c>
+      <c r="D153" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E153" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B154" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="C154" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SRB</v>
+      </c>
+      <c r="D154" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E154" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B155" s="25" t="s">
+        <v>795</v>
+      </c>
+      <c r="C155" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SYC</v>
+      </c>
+      <c r="D155" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E155" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B156" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="C156" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SLE</v>
+      </c>
+      <c r="D156" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E156" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B157" s="25" t="s">
+        <v>793</v>
+      </c>
+      <c r="C157" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SGP</v>
+      </c>
+      <c r="D157" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E157" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B158" s="25" t="s">
+        <v>792</v>
+      </c>
+      <c r="C158" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SVK</v>
+      </c>
+      <c r="D158" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E158" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B159" s="25" t="s">
+        <v>791</v>
+      </c>
+      <c r="C159" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SVN</v>
+      </c>
+      <c r="D159" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E159" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B160" s="25" t="s">
+        <v>790</v>
+      </c>
+      <c r="C160" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SLB</v>
+      </c>
+      <c r="D160" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E160" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B161" s="25" t="s">
+        <v>789</v>
+      </c>
+      <c r="C161" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SOM</v>
+      </c>
+      <c r="D161" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E161" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B162" s="25" t="s">
+        <v>788</v>
+      </c>
+      <c r="C162" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>ZAF</v>
+      </c>
+      <c r="D162" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E162" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B163" s="25" t="s">
+        <v>787</v>
+      </c>
+      <c r="C163" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SSD</v>
+      </c>
+      <c r="D163" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E163" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B164" s="25" t="s">
+        <v>786</v>
+      </c>
+      <c r="C164" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>ESP</v>
+      </c>
+      <c r="D164" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E164" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B165" s="25" t="s">
+        <v>785</v>
+      </c>
+      <c r="C165" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>LKA</v>
+      </c>
+      <c r="D165" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E165" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B166" s="25" t="s">
+        <v>784</v>
+      </c>
+      <c r="C166" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SDN</v>
+      </c>
+      <c r="D166" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E166" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B167" s="25" t="s">
+        <v>783</v>
+      </c>
+      <c r="C167" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SUR</v>
+      </c>
+      <c r="D167" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E167" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B168" s="25" t="s">
+        <v>782</v>
+      </c>
+      <c r="C168" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SWE</v>
+      </c>
+      <c r="D168" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E168" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B169" s="25" t="s">
+        <v>781</v>
+      </c>
+      <c r="C169" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>CHE</v>
+      </c>
+      <c r="D169" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E169" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" s="25" t="s">
+        <v>597</v>
+      </c>
+      <c r="B170" s="25" t="s">
+        <v>780</v>
+      </c>
+      <c r="C170" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>SYR</v>
+      </c>
+      <c r="D170" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>N</v>
+      </c>
+      <c r="E170" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>反対票</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B171" s="25" t="s">
+        <v>779</v>
+      </c>
+      <c r="C171" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>TJK</v>
+      </c>
+      <c r="D171" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E171" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B172" s="25" t="s">
+        <v>778</v>
+      </c>
+      <c r="C172" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>THA</v>
+      </c>
+      <c r="D172" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E172" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5">
+      <c r="A173" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B173" s="25" t="s">
+        <v>777</v>
+      </c>
+      <c r="C173" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>TLS</v>
+      </c>
+      <c r="D173" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E173" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B174" s="25" t="s">
+        <v>776</v>
+      </c>
+      <c r="C174" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>TGO</v>
+      </c>
+      <c r="D174" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E174" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B175" s="25" t="s">
+        <v>775</v>
+      </c>
+      <c r="C175" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>TON</v>
+      </c>
+      <c r="D175" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E175" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B176" s="25" t="s">
+        <v>774</v>
+      </c>
+      <c r="C176" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>TTO</v>
+      </c>
+      <c r="D176" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E176" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5">
+      <c r="A177" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B177" s="25" t="s">
+        <v>773</v>
+      </c>
+      <c r="C177" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>TUN</v>
+      </c>
+      <c r="D177" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E177" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5">
+      <c r="A178" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="B178" s="25" t="s">
+        <v>772</v>
+      </c>
+      <c r="C178" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>TKM</v>
+      </c>
+      <c r="D178" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>ZZZ</v>
+      </c>
+      <c r="E178" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B179" s="25" t="s">
+        <v>771</v>
+      </c>
+      <c r="C179" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>TUV</v>
+      </c>
+      <c r="D179" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E179" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B180" s="25" t="s">
+        <v>770</v>
+      </c>
+      <c r="C180" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>TUR</v>
+      </c>
+      <c r="D180" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E180" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B181" s="25" t="s">
+        <v>769</v>
+      </c>
+      <c r="C181" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>UGA</v>
+      </c>
+      <c r="D181" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E181" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B182" s="25" t="s">
+        <v>768</v>
+      </c>
+      <c r="C182" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>UKR</v>
+      </c>
+      <c r="D182" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E182" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B183" s="25" t="s">
+        <v>767</v>
+      </c>
+      <c r="C183" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>ARE</v>
+      </c>
+      <c r="D183" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E183" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B184" s="25" t="s">
+        <v>766</v>
+      </c>
+      <c r="C184" s="25" t="s">
+        <v>949</v>
+      </c>
+      <c r="D184" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E184" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B185" s="25" t="s">
+        <v>765</v>
+      </c>
+      <c r="C185" s="25" t="s">
+        <v>962</v>
+      </c>
+      <c r="D185" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E185" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B186" s="25" t="s">
+        <v>764</v>
+      </c>
+      <c r="C186" s="25" t="s">
+        <v>948</v>
+      </c>
+      <c r="D186" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E186" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5">
+      <c r="A187" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B187" s="25" t="s">
+        <v>763</v>
+      </c>
+      <c r="C187" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>URY</v>
+      </c>
+      <c r="D187" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E187" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B188" s="25" t="s">
+        <v>762</v>
+      </c>
+      <c r="C188" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>UZB</v>
+      </c>
+      <c r="D188" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E188" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B189" s="25" t="s">
+        <v>761</v>
+      </c>
+      <c r="C189" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>VUT</v>
+      </c>
+      <c r="D189" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E189" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" s="25" t="s">
+        <v>599</v>
+      </c>
+      <c r="B190" s="25" t="s">
+        <v>760</v>
+      </c>
+      <c r="C190" s="25" t="s">
+        <v>947</v>
+      </c>
+      <c r="D190" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>ZZZ</v>
+      </c>
+      <c r="E190" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>無投票</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B191" s="25" t="s">
+        <v>759</v>
+      </c>
+      <c r="C191" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>VNM</v>
+      </c>
+      <c r="D191" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E191" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B192" s="25" t="s">
+        <v>758</v>
+      </c>
+      <c r="C192" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>YEM</v>
+      </c>
+      <c r="D192" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E192" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="25" t="s">
+        <v>598</v>
+      </c>
+      <c r="B193" s="25" t="s">
+        <v>757</v>
+      </c>
+      <c r="C193" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>ZMB</v>
+      </c>
+      <c r="D193" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>Y</v>
+      </c>
+      <c r="E193" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>賛成票</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" s="25" t="s">
+        <v>596</v>
+      </c>
+      <c r="B194" s="25" t="s">
+        <v>756</v>
+      </c>
+      <c r="C194" s="25" t="str">
+        <f>IFERROR(VLOOKUP(決議3回目に態度の列付加[[#This Row],[国名]],ISOコード表,2,FALSE),"〓〓")</f>
+        <v>ZWE</v>
+      </c>
+      <c r="D194" s="26" t="str">
+        <f>決議3回目に態度の列付加[[#This Row],[態度]]</f>
+        <v>A</v>
+      </c>
+      <c r="E194" s="26" t="str">
+        <f>VLOOKUP(決議3回目に態度の列付加[[#This Row],[態度＝再掲]],対照表, 2, FALSE)</f>
+        <v>棄権票</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="〓">
+      <formula>NOT(ISERROR(SEARCH("〓",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D95D573-AA82-4827-AAC3-E1DFCF2418CA}">
   <dimension ref="A1:E194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -18505,7 +26875,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text="〓">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="〓">
       <formula>NOT(ISERROR(SEARCH("〓",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18517,14 +26887,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4D0BDE-CDF6-4B2F-914F-9EA38FAB44D2}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
   </sheetPr>
   <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -23209,12 +31579,12 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="D1:F1 D3:F1048576 D2 F2">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="〓">
+    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="〓">
       <formula>NOT(ISERROR(SEARCH("〓",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="〓">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="〓">
       <formula>NOT(ISERROR(SEARCH("〓",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23226,7 +31596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB30A95-E098-414C-A50E-B9A37DD25EC5}">
   <sheetPr>
     <tabColor theme="9" tint="-0.499984740745262"/>
